--- a/AutoScript/data/Demo.xlsx
+++ b/AutoScript/data/Demo.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18A9B6F-FB67-466B-B97E-457C45FC1059}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3CD4CD77-49F9-46AE-B0D3-B922C2372D2E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="375" windowWidth="20760" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valid" sheetId="1" r:id="rId1"/>
     <sheet name="invalid" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N8"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -45,13 +46,15 @@
   </si>
   <si>
     <t>gocoronago</t>
+  </si>
+  <si>
+    <t>dummy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,9 +367,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -388,6 +391,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -397,7 +405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18653FD-ECCD-43EA-85A9-3A842E8E49A0}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -443,7 +451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
